--- a/Technology/Software/CCC Intelligent Solutions.xlsx
+++ b/Technology/Software/CCC Intelligent Solutions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0345FF-9177-2E46-8C9E-E35534D22ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A029CC-09DF-3C40-8038-B4C61C27BFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1748,8 +1748,10 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1767,7 +1769,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4160000000000005E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1780,6 +1782,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1907,11 +1911,11 @@
     <v>Powered by Refinitiv</v>
     <v>13.41</v>
     <v>8.2402999999999995</v>
-    <v>0.78900000000000003</v>
-    <v>0.06</v>
-    <v>5.2129999999999998E-3</v>
-    <v>-0.03</v>
-    <v>-2.5929999999999998E-3</v>
+    <v>0.79200000000000004</v>
+    <v>0.01</v>
+    <v>8.6810000000000001E-4</v>
+    <v>0.3</v>
+    <v>2.6019E-2</v>
     <v>USD</v>
     <v>CCC Intelligent Solutions Holdings Inc. provides software as a service (SaaS) platform for the property and casualty (P&amp;C) insurance economy. It also provides cloud, mobile, artificial intelligence (AI), telematics, hyperscale technologies and applications for the P&amp;C insurance economy. Its SaaS platform connects trading partners, facilitates commerce, and supports mission-critical, AI-enabled digital workflows. Its platform digitizes workflows and connects companies across the P&amp;C insurance economy, including insurance carriers, collision repairers, parts suppliers, automotive manufacturers, financial institutions and others. Its insurance solutions help insurance carriers manage mission-critical workflows across the claim’s lifecycle, while building smart, dynamic experiences for their own customers. Its software integrates seamlessly with both legacy and modern systems alike and enables insurers to rapidly on its platform. It has approximately 300 insurers on its network.</v>
     <v>2375</v>
@@ -1919,24 +1923,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>167 N. Green Street, 9Th Floor, CHICAGO, IL, 60607 US</v>
-    <v>11.625</v>
+    <v>11.6</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45257.889991990625</v>
+    <v>45269.01263436328</v>
     <v>0</v>
-    <v>11.484999999999999</v>
-    <v>7345556972</v>
+    <v>11.47</v>
+    <v>7320161788</v>
     <v>CCC INTELLIGENT SOLUTIONS HOLDINGS INC.</v>
     <v>CCC INTELLIGENT SOLUTIONS HOLDINGS INC.</v>
-    <v>11.59</v>
-    <v>11.51</v>
-    <v>11.57</v>
-    <v>11.54</v>
+    <v>11.47</v>
+    <v>11.52</v>
+    <v>11.53</v>
+    <v>11.83</v>
     <v>634879600</v>
     <v>CCCS</v>
     <v>CCC INTELLIGENT SOLUTIONS HOLDINGS INC. (XNAS:CCCS)</v>
-    <v>1535496</v>
-    <v>3067232</v>
+    <v>1528041</v>
+    <v>2704464</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2098,9 +2102,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8777,7 +8781,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8830,7 +8834,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>7345556972</v>
+        <v>7320161788</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>192</v>
@@ -8858,7 +8862,7 @@
       </c>
       <c r="I3" s="98">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>6072688076.2440376</v>
+        <v>6130459204.5597153</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>196</v>
@@ -8910,14 +8914,14 @@
       </c>
       <c r="I4" s="99">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>5362083564.5935001</v>
+        <v>5413154470.3459158</v>
       </c>
       <c r="J4" s="41" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="100" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.2129999999999998E-3</v>
+        <v>8.6810000000000001E-4</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>204</v>
@@ -8962,14 +8966,14 @@
       </c>
       <c r="I5" s="99">
         <f>I4+G5-G6</f>
-        <v>4975132564.5935001</v>
+        <v>5026203470.3459158</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="107" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>11.57</v>
+        <v>11.53</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>211</v>
@@ -8989,7 +8993,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48">
         <f>O20/F10</f>
-        <v>8.5413453162790702</v>
+        <v>8.5118160325581389</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>213</v>
@@ -9017,14 +9021,14 @@
       </c>
       <c r="I6" s="100">
         <f>N25</f>
-        <v>7.2935938145541238E-2</v>
+        <v>7.2484207999212444E-2</v>
       </c>
       <c r="J6" s="41" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="103">
         <f>I5/G4</f>
-        <v>7.2393239194788448</v>
+        <v>7.3136372819476341</v>
       </c>
       <c r="L6" s="49" t="s">
         <v>217</v>
@@ -9044,14 +9048,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>O20/F12</f>
-        <v>35.48578247342995</v>
+        <v>35.36310042512077</v>
       </c>
       <c r="B7" s="51" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="96">
         <f>F15/A3</f>
-        <v>3.2128264868081673E-2</v>
+        <v>3.2239724590087164E-2</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>220</v>
@@ -9078,7 +9082,7 @@
       </c>
       <c r="K7" s="104">
         <f>K6/K5-1</f>
-        <v>-0.3743021677200653</v>
+        <v>-0.36568627216412541</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>223</v>
@@ -9405,7 +9409,7 @@
       </c>
       <c r="O14" s="73">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4160000000000005E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
@@ -9452,7 +9456,7 @@
       </c>
       <c r="O15" s="80" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.78900000000000003</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
@@ -9557,7 +9561,7 @@
       </c>
       <c r="O17" s="83">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.559376000000001E-2</v>
+        <v>7.5099680000000002E-2</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
@@ -9640,7 +9644,7 @@
       </c>
       <c r="O20" s="89">
         <f>A3</f>
-        <v>7345556972</v>
+        <v>7320161788</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
@@ -9670,7 +9674,7 @@
       </c>
       <c r="O21" s="89">
         <f>O19+O20</f>
-        <v>8181240972</v>
+        <v>8155845788</v>
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
@@ -9698,7 +9702,7 @@
       </c>
       <c r="O22" s="91">
         <f>(O19/O21)</f>
-        <v>0.10214636176346573</v>
+        <v>0.10246441898516191</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
@@ -9723,7 +9727,7 @@
       </c>
       <c r="O23" s="92">
         <f>O20/O21</f>
-        <v>0.8978536382365343</v>
+        <v>0.8975355810148381</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
@@ -9767,7 +9771,7 @@
       <c r="M25" s="57"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.2935938145541238E-2</v>
+        <v>7.2484207999212444E-2</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="38"/>
